--- a/Lab 04/Ejercicio 2.xlsx
+++ b/Lab 04/Ejercicio 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/men19673_uvg_edu_gt/Documents/University/Semesters/Fall 2020/Electronica Digital/Electronica-Digital/Lab 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="828" documentId="8_{D3DF8E22-D311-4207-ABBA-6AA27BFAB342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{559C8563-9FB7-4E8E-B41F-C53559BD053D}"/>
+  <xr:revisionPtr revIDLastSave="876" documentId="8_{D3DF8E22-D311-4207-ABBA-6AA27BFAB342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6CA3ACC-86BE-46F8-9448-CF49A53CC0E1}"/>
   <bookViews>
-    <workbookView xWindow="-10848" yWindow="3432" windowWidth="17280" windowHeight="8964" xr2:uid="{017F4A9D-A9F0-4E24-ABD4-4793016781CE}"/>
+    <workbookView xWindow="13548" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{017F4A9D-A9F0-4E24-ABD4-4793016781CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>A</t>
   </si>
@@ -161,10 +161,28 @@
     <t>Movimiento</t>
   </si>
   <si>
+    <t>Alarma y Luces</t>
+  </si>
+  <si>
+    <t>SOP</t>
+  </si>
+  <si>
+    <t>Y=AC+AB'</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>(A+B+C)(A+B+C')(A+B'+C)(A+B'+C')(A'+B'+C)</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>(AB'C')+(AB'C)+(ABC)</t>
+  </si>
+  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Alarma y Luces</t>
   </si>
 </sst>
 </file>
@@ -245,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985E030A-0EDD-4BD9-AD71-CC535E21735D}">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,12 +651,12 @@
     <col min="28" max="28" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -687,7 +708,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8">
         <v>0</v>
@@ -747,8 +768,20 @@
       <c r="X3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8">
         <v>0</v>
@@ -805,20 +838,20 @@
       <c r="U4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="8">
         <v>0</v>
@@ -875,20 +908,20 @@
       <c r="U5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="8">
         <v>0</v>
@@ -945,20 +978,28 @@
       <c r="U6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="8">
         <v>0</v>
@@ -1015,20 +1056,36 @@
       <c r="U7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>11</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="9">
         <v>0</v>
@@ -1069,20 +1126,36 @@
       <c r="N8" s="8">
         <v>0</v>
       </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="8">
         <v>0</v>
@@ -1130,20 +1203,36 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
-      <c r="Y9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="8">
         <v>0</v>
@@ -1184,20 +1273,20 @@
       <c r="N10" s="8">
         <v>0</v>
       </c>
-      <c r="Y10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -1238,20 +1327,23 @@
       <c r="N11" s="8">
         <v>1</v>
       </c>
-      <c r="Y11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="8">
         <v>1</v>
@@ -1292,20 +1384,20 @@
       <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="Y12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="8">
         <v>1</v>
@@ -1347,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -1389,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="8">
         <v>1</v>
@@ -1430,8 +1522,16 @@
       <c r="N15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="8">
         <v>1</v>
@@ -1472,8 +1572,16 @@
       <c r="N16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="8">
         <v>1</v>
@@ -1515,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="8">
         <v>1</v>
@@ -1557,11 +1665,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1600,8 +1720,20 @@
       <c r="N20" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>0</v>
       </c>
@@ -1645,8 +1777,20 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>0</v>
       </c>
@@ -1698,8 +1842,20 @@
       <c r="U22" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>0</v>
       </c>
@@ -1751,8 +1907,20 @@
       <c r="U23" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>0</v>
       </c>
@@ -1804,8 +1972,20 @@
       <c r="U24" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>1</v>
       </c>
@@ -1841,8 +2021,20 @@
       <c r="N25" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y25" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>1</v>
       </c>
@@ -1881,8 +2073,20 @@
       <c r="R26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y26" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>1</v>
       </c>
@@ -1918,8 +2122,20 @@
       <c r="N27" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y27" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <v>1</v>
       </c>
@@ -1955,8 +2171,20 @@
       <c r="N28" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Y28" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2000,7 +2228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>0</v>
       </c>
@@ -3105,17 +3333,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="P52:P54"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="Q21:U21"/>
     <mergeCell ref="P22:P24"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AD7:AD9"/>
     <mergeCell ref="Q32:U32"/>
     <mergeCell ref="P33:P37"/>
     <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="P52:P54"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="Z16:AB16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Lab 04/Ejercicio 2.xlsx
+++ b/Lab 04/Ejercicio 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/men19673_uvg_edu_gt/Documents/University/Semesters/Fall 2020/Electronica Digital/Electronica-Digital/Lab 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="876" documentId="8_{D3DF8E22-D311-4207-ABBA-6AA27BFAB342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6CA3ACC-86BE-46F8-9448-CF49A53CC0E1}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="114_{75AB3F4C-8F5F-4FED-96C9-F2C4560A451B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62F02711-BA7F-4E4B-93D4-6A135B9B8AD1}"/>
   <bookViews>
-    <workbookView xWindow="13548" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{017F4A9D-A9F0-4E24-ABD4-4793016781CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{017F4A9D-A9F0-4E24-ABD4-4793016781CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="50">
   <si>
     <t>A</t>
   </si>
@@ -629,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985E030A-0EDD-4BD9-AD71-CC535E21735D}">
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="84" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,16 +647,16 @@
     <col min="12" max="12" width="12.21875" customWidth="1"/>
     <col min="13" max="13" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="37.88671875" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" customWidth="1"/>
+    <col min="32" max="32" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8">
         <v>0</v>
@@ -765,23 +765,23 @@
       <c r="U3" s="5">
         <v>10</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AC3" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8">
         <v>0</v>
@@ -838,20 +838,20 @@
       <c r="U4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="8">
         <v>0</v>
@@ -908,20 +908,20 @@
       <c r="U5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="8">
         <v>0</v>
@@ -978,28 +978,28 @@
       <c r="U6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="15" t="s">
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="8">
         <v>0</v>
@@ -1056,36 +1056,36 @@
       <c r="U7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16" t="s">
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5" t="s">
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AL7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AM7" s="5">
         <v>11</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AN7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="9">
         <v>0</v>
@@ -1126,36 +1126,36 @@
       <c r="N8" s="8">
         <v>0</v>
       </c>
-      <c r="Y8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="5" t="s">
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AK8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AL8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AM8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AN8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="8">
         <v>0</v>
@@ -1203,36 +1203,36 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
-      <c r="Y9" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="5" t="s">
+      <c r="AD9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AL9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AM9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AI9" s="6" t="s">
+      <c r="AN9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="8">
         <v>0</v>
@@ -1273,20 +1273,20 @@
       <c r="N10" s="8">
         <v>0</v>
       </c>
-      <c r="Y10" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -1327,23 +1327,38 @@
       <c r="N11" s="8">
         <v>1</v>
       </c>
-      <c r="Y11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="Q11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="8">
         <v>1</v>
@@ -1384,20 +1399,35 @@
       <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="Y12" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="8">
         <v>1</v>
@@ -1438,8 +1468,23 @@
       <c r="N13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -1480,8 +1525,23 @@
       <c r="N14" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="8">
         <v>1</v>
@@ -1522,16 +1582,31 @@
       <c r="N15" s="8">
         <v>1</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
+      <c r="R15" s="8">
+        <v>1</v>
+      </c>
+      <c r="S15" s="8">
+        <v>1</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="s">
         <v>47</v>
       </c>
-      <c r="Z15" s="18" t="s">
+      <c r="AE15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="8">
         <v>1</v>
@@ -1572,16 +1647,16 @@
       <c r="N16" s="8">
         <v>1</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AD16" t="s">
         <v>43</v>
       </c>
-      <c r="Z16" s="18" t="s">
+      <c r="AE16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="8">
         <v>1</v>
@@ -1623,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="8">
         <v>1</v>
@@ -1665,23 +1740,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="Y19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1720,20 +1795,20 @@
       <c r="N20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="AD20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AE20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AF20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AB20" s="11" t="s">
+      <c r="AG20" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>0</v>
       </c>
@@ -1777,20 +1852,32 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="Y21" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="14" t="s">
+      <c r="W21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AA21" s="14" t="s">
+      <c r="AF21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AB21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AG21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>0</v>
       </c>
@@ -1842,20 +1929,32 @@
       <c r="U22" s="5">
         <v>10</v>
       </c>
-      <c r="Y22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="14" t="s">
+      <c r="W22" s="12">
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA22" s="14" t="s">
+      <c r="Z22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AG22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>0</v>
       </c>
@@ -1907,20 +2006,32 @@
       <c r="U23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="14" t="s">
+      <c r="W23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X23" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>0</v>
       </c>
@@ -1972,20 +2083,32 @@
       <c r="U24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W24" s="12">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>1</v>
       </c>
@@ -2021,20 +2144,20 @@
       <c r="N25" s="14">
         <v>1</v>
       </c>
-      <c r="Y25" s="14">
-        <v>1</v>
+      <c r="W25" s="12">
+        <v>1</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="Z25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>1</v>
       </c>
@@ -2073,20 +2196,24 @@
       <c r="R26" t="s">
         <v>28</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="W26" s="12">
+        <v>1</v>
+      </c>
+      <c r="X26" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="12">
         <v>1</v>
       </c>
       <c r="Z26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>1</v>
       </c>
@@ -2122,20 +2249,8 @@
       <c r="N27" s="14">
         <v>0</v>
       </c>
-      <c r="Y27" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <v>1</v>
       </c>
@@ -2171,20 +2286,8 @@
       <c r="N28" s="14">
         <v>1</v>
       </c>
-      <c r="Y28" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2228,7 +2331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>0</v>
       </c>
@@ -2729,6 +2832,21 @@
       <c r="N41" s="8">
         <v>1</v>
       </c>
+      <c r="P41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="8">
@@ -2770,6 +2888,21 @@
       <c r="N42" s="8">
         <v>0</v>
       </c>
+      <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T42" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="8">
@@ -2811,6 +2944,21 @@
       <c r="N43" s="8">
         <v>1</v>
       </c>
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T43" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="8">
@@ -2852,6 +3000,21 @@
       <c r="N44" s="8">
         <v>1</v>
       </c>
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>1</v>
+      </c>
+      <c r="R44" s="8">
+        <v>1</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T44" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="8">
@@ -2893,6 +3056,21 @@
       <c r="N45" s="9">
         <v>1</v>
       </c>
+      <c r="P45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S45" s="8">
+        <v>0</v>
+      </c>
+      <c r="T45" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="8">
@@ -2932,6 +3110,21 @@
         <v>0</v>
       </c>
       <c r="N46" s="8">
+        <v>1</v>
+      </c>
+      <c r="P46" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T46" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3331,9 +3524,84 @@
       <c r="N58" s="2">
         <v>1</v>
       </c>
+      <c r="P58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P59" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P60" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>1</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P62" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>1</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AI7:AI9"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE16:AG16"/>
     <mergeCell ref="Q51:U51"/>
     <mergeCell ref="P52:P54"/>
     <mergeCell ref="Q2:U2"/>
@@ -3341,13 +3609,6 @@
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="Q21:U21"/>
     <mergeCell ref="P22:P24"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="P33:P37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="Z16:AB16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
